--- a/Code/Results/Cases/Case_2_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_105/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.30789816308936</v>
+        <v>22.88430570846026</v>
       </c>
       <c r="C2">
-        <v>18.9766056954439</v>
+        <v>11.38541711786571</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.992955745854669</v>
+        <v>8.594639669030494</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.076764061889935</v>
+        <v>3.703260823887519</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.99951497878502</v>
+        <v>30.67623233654734</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.00163495368977</v>
+        <v>10.73578321317222</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.7020556698492</v>
+        <v>19.48541697895221</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.48024145712133</v>
+        <v>22.42047879177176</v>
       </c>
       <c r="C3">
-        <v>17.57304002524899</v>
+        <v>10.83131493425334</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.992996292136223</v>
+        <v>8.603163084067516</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.089899933537331</v>
+        <v>3.707719094281989</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.41757518326178</v>
+        <v>30.67206585270842</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.715051016661059</v>
+        <v>10.71740860601133</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.99619041817942</v>
+        <v>19.56045615136209</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.33853789585226</v>
+        <v>22.13809013655271</v>
       </c>
       <c r="C4">
-        <v>16.67264174396324</v>
+        <v>10.4800525084757</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.994188539305275</v>
+        <v>8.608812154364172</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.098106859832976</v>
+        <v>3.710594896917085</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.08607162570697</v>
+        <v>30.67780555932537</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.541184173928235</v>
+        <v>10.70848734333051</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.17984204353986</v>
+        <v>19.60859380239062</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.86360312752502</v>
+        <v>22.02379082481288</v>
       </c>
       <c r="C5">
-        <v>16.29576740937816</v>
+        <v>10.33435132713477</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.994949291939655</v>
+        <v>8.611218856521949</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.101491073215496</v>
+        <v>3.711801759845825</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.95722639105762</v>
+        <v>30.68222199808178</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.470905595654931</v>
+        <v>10.70544700305839</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.25548752664653</v>
+        <v>19.62873025964426</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.78416060054267</v>
+        <v>22.00486345471049</v>
       </c>
       <c r="C6">
-        <v>16.23257972679845</v>
+        <v>10.31001019978839</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.995091716356561</v>
+        <v>8.611624812993275</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.102055541454237</v>
+        <v>3.712004273706056</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.93620174631036</v>
+        <v>30.68308052483995</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.459272068359921</v>
+        <v>10.70497813666233</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.2680982073314</v>
+        <v>19.63210534189693</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.33217175967265</v>
+        <v>22.13654528422283</v>
       </c>
       <c r="C7">
-        <v>16.66759969998118</v>
+        <v>10.47809758105379</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.994197708963243</v>
+        <v>8.608844188034425</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323728</v>
       </c>
       <c r="G7">
-        <v>2.098152333933524</v>
+        <v>3.710611031385795</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.08430901143745</v>
+        <v>30.67785672238547</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.540233981877593</v>
+        <v>10.70844392887024</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.18085891063026</v>
+        <v>19.6088632627947</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.66515817968009</v>
+        <v>22.7239821956056</v>
       </c>
       <c r="C8">
-        <v>18.50051083805429</v>
+        <v>11.19677513814738</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.99271546043669</v>
+        <v>8.597492354979149</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344769</v>
       </c>
       <c r="G8">
-        <v>2.08126664730901</v>
+        <v>3.704769397691829</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.79335720185112</v>
+        <v>30.67306840155383</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.902410077311356</v>
+        <v>10.72895869886002</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.80286313506667</v>
+        <v>19.51086293810517</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.22471186021498</v>
+        <v>23.88756609412613</v>
       </c>
       <c r="C9">
-        <v>21.80124994772909</v>
+        <v>12.51047203485275</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.000056421921821</v>
+        <v>8.578523572486265</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.0027458068253</v>
       </c>
       <c r="G9">
-        <v>2.049059492016115</v>
+        <v>3.694405472344733</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.39999750736753</v>
+        <v>30.72986919414148</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.627900129376883</v>
+        <v>10.78783478117294</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.08412042800247</v>
+        <v>19.33500233240787</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.35943455880834</v>
+        <v>24.7398573562466</v>
       </c>
       <c r="C10">
-        <v>24.06770865978225</v>
+        <v>13.4085093012062</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.013346687008854</v>
+        <v>8.566586474858132</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.025601545305739</v>
+        <v>3.687447121904872</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.72963437566089</v>
+        <v>30.81234615036747</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.169621612704601</v>
+        <v>10.8423160469218</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.56758300705394</v>
+        <v>19.21566819853621</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.74163875531573</v>
+        <v>25.12509115630331</v>
       </c>
       <c r="C11">
-        <v>25.06978916958558</v>
+        <v>13.80107222504272</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.021576300700186</v>
+        <v>8.561588590695978</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.0148811522271</v>
+        <v>3.684422025453419</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.37154467003588</v>
+        <v>30.85876838362413</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.418249885328727</v>
+        <v>10.86949819437495</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.33472565761172</v>
+        <v>19.16350715867067</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.25933527993857</v>
+        <v>25.27046196458691</v>
       </c>
       <c r="C12">
-        <v>25.44563106080418</v>
+        <v>13.94733959163762</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.025055983853768</v>
+        <v>8.559758087330994</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.010805200876647</v>
+        <v>3.683296518145761</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.6204205306859</v>
+        <v>30.87762925568592</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.512772540740826</v>
+        <v>10.88013204117402</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.24683630819588</v>
+        <v>19.14405954428281</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.14808372719573</v>
+        <v>25.23917873011668</v>
       </c>
       <c r="C13">
-        <v>25.36483844403189</v>
+        <v>13.91594579755452</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.024289518272653</v>
+        <v>8.560149558964698</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.011683923050097</v>
+        <v>3.683538027666532</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.56655422733929</v>
+        <v>30.8735102140651</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.4923975971901</v>
+        <v>10.87782677926352</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.2657521064039</v>
+        <v>19.14823440079219</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.78434074401466</v>
+        <v>25.1370619421678</v>
       </c>
       <c r="C14">
-        <v>25.10077914369375</v>
+        <v>13.81315405649401</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.021854976303279</v>
+        <v>8.561436750237949</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.014546208215383</v>
+        <v>3.684329028654786</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.39190058521691</v>
+        <v>30.86029438693107</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.426018421833865</v>
+        <v>10.87036624844276</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.32748920107235</v>
+        <v>19.1619010912614</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.56081270213753</v>
+        <v>25.07444180876263</v>
       </c>
       <c r="C15">
-        <v>24.93858069085412</v>
+        <v>13.74987772132286</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.020412698229141</v>
+        <v>8.562233275160466</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.016297006008296</v>
+        <v>3.684816144000513</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.28569092015218</v>
+        <v>30.85236625556957</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.385409973477111</v>
+        <v>10.86584067249367</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.36534232323594</v>
+        <v>19.17031198111875</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.26827042170545</v>
+        <v>24.7146183268018</v>
       </c>
       <c r="C16">
-        <v>24.00168193496645</v>
+        <v>13.38252494528328</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.012856794973104</v>
+        <v>8.566921791055847</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.026300397806695</v>
+        <v>3.687647629899992</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.68846768762322</v>
+        <v>30.80949166697436</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.153421538239797</v>
+        <v>10.84058753154429</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.58284173316217</v>
+        <v>19.21911972242866</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.46450240536024</v>
+        <v>24.49313243817534</v>
       </c>
       <c r="C17">
-        <v>23.41986792119918</v>
+        <v>13.15300710078527</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.008812864102247</v>
+        <v>8.569908718594462</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.032418400003206</v>
+        <v>3.68942048532094</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.33188658418656</v>
+        <v>30.78547136568109</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.011697842040459</v>
+        <v>10.8257068926957</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.71679764399743</v>
+        <v>19.24960522764432</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.99803305441529</v>
+        <v>24.36551500376209</v>
       </c>
       <c r="C18">
-        <v>23.08246280860105</v>
+        <v>13.0194968047054</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.006688981045185</v>
+        <v>8.571667420989302</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.035933314895083</v>
+        <v>3.690453398350939</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.13024510679552</v>
+        <v>30.77249352891575</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.930383795148721</v>
+        <v>10.81737397487369</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.79404521459085</v>
+        <v>19.26733971762741</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.83936343816101</v>
+        <v>24.32227214333912</v>
       </c>
       <c r="C19">
-        <v>22.96773401591603</v>
+        <v>12.97403838318318</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.006003233507911</v>
+        <v>8.572269880513629</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.037122976573531</v>
+        <v>3.690805398733119</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.06255324546681</v>
+        <v>30.76824331219118</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.902885644525393</v>
+        <v>10.81459153744314</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.82023490903658</v>
+        <v>19.27337869456154</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.55049187497733</v>
+        <v>24.51673436754653</v>
       </c>
       <c r="C20">
-        <v>23.48208515762184</v>
+        <v>13.1775953984219</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.00922210739886</v>
+        <v>8.569586543337266</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>2.031767604437718</v>
+        <v>3.689230395324453</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.36948461061467</v>
+        <v>30.78794162137691</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.026763382745843</v>
+        <v>10.82726759850187</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.70251730203827</v>
+        <v>19.24633929735316</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.89133075634285</v>
+        <v>25.16707110215989</v>
       </c>
       <c r="C21">
-        <v>25.1784333907713</v>
+        <v>13.84341194352456</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.022559756555683</v>
+        <v>8.561056986595831</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>2.013706011895747</v>
+        <v>3.684096149989625</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.44303899154848</v>
+        <v>30.86414140409537</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.445504881270672</v>
+        <v>10.87254838125571</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.30934773883314</v>
+        <v>19.15787859204071</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38825195809465</v>
+        <v>25.58907304487303</v>
       </c>
       <c r="C22">
-        <v>26.26628832586915</v>
+        <v>14.26461214278993</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.033425082124539</v>
+        <v>8.55584428263937</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>2.001800769065005</v>
+        <v>3.680857314076856</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.17876074691266</v>
+        <v>30.92141317005181</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.721397198491594</v>
+        <v>10.90412469812984</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.05407590317403</v>
+        <v>19.10183969098501</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.59210935298047</v>
+        <v>25.36416814282596</v>
       </c>
       <c r="C23">
-        <v>25.6873813872473</v>
+        <v>14.04111262929909</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.027410387741937</v>
+        <v>8.55859331798564</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>2.008167558848421</v>
+        <v>3.682575311729361</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.78279038668321</v>
+        <v>30.89016246856743</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.573918172877262</v>
+        <v>10.88709195004303</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.19016598813439</v>
+        <v>19.13158655228174</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.51162969739089</v>
+        <v>24.50606480274365</v>
       </c>
       <c r="C24">
-        <v>23.45396585602111</v>
+        <v>13.16648387289493</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.009036465894972</v>
+        <v>8.569732069569753</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>2.032061835930128</v>
+        <v>3.689316292406653</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.35247610598457</v>
+        <v>30.78682222818184</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.019951742339618</v>
+        <v>10.82656131110657</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.70897271277951</v>
+        <v>19.24781517660005</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.02816093739991</v>
+        <v>23.57256191358578</v>
       </c>
       <c r="C25">
-        <v>20.93780586584866</v>
+        <v>12.1663278047407</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.996820548656649</v>
+        <v>8.583303503259021</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>2.057708425561355</v>
+        <v>3.697093306777578</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.94052706631942</v>
+        <v>30.70737042208741</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.430131022893182</v>
+        <v>10.7699237731589</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.27638864499299</v>
+        <v>19.38083842887077</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_105/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.88430570846026</v>
+        <v>27.30789816308932</v>
       </c>
       <c r="C2">
-        <v>11.38541711786571</v>
+        <v>18.97660569544384</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.594639669030494</v>
+        <v>4.9929557458546</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.703260823887519</v>
+        <v>2.076764061889802</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.67623233654734</v>
+        <v>23.99951497878515</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.73578321317222</v>
+        <v>8.001634953689795</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.48541697895221</v>
+        <v>12.70205566984923</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.42047879177176</v>
+        <v>25.48024145712138</v>
       </c>
       <c r="C3">
-        <v>10.83131493425334</v>
+        <v>17.57304002524905</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.603163084067516</v>
+        <v>4.992996292136227</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.707719094281989</v>
+        <v>2.089899933537337</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.67206585270842</v>
+        <v>23.41757518326179</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.71740860601133</v>
+        <v>7.715051016661054</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.56045615136209</v>
+        <v>12.99619041817936</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.13809013655271</v>
+        <v>24.33853789585228</v>
       </c>
       <c r="C4">
-        <v>10.4800525084757</v>
+        <v>16.67264174396341</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.608812154364172</v>
+        <v>4.994188539305537</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.710594896917085</v>
+        <v>2.098106859832443</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.67780555932537</v>
+        <v>23.08607162570693</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.70848734333051</v>
+        <v>7.541184173928274</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.60859380239062</v>
+        <v>13.17984204353981</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.02379082481288</v>
+        <v>23.86360312752504</v>
       </c>
       <c r="C5">
-        <v>10.33435132713477</v>
+        <v>16.29576740937792</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.611218856521949</v>
+        <v>4.994949291939651</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.711801759845825</v>
+        <v>2.101491073215494</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.68222199808178</v>
+        <v>22.9572263910578</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.70544700305839</v>
+        <v>7.470905595655005</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.62873025964426</v>
+        <v>13.25548752664672</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.00486345471049</v>
+        <v>23.78416060054268</v>
       </c>
       <c r="C6">
-        <v>10.31001019978839</v>
+        <v>16.23257972679843</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.611624812993275</v>
+        <v>4.995091716356628</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.712004273706056</v>
+        <v>2.102055541454238</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.68308052483995</v>
+        <v>22.93620174631025</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.70497813666233</v>
+        <v>7.459272068359948</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.63210534189693</v>
+        <v>13.26809820733134</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.13654528422283</v>
+        <v>24.33217175967268</v>
       </c>
       <c r="C7">
-        <v>10.47809758105379</v>
+        <v>16.66759969998129</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.608844188034425</v>
+        <v>4.994197708963244</v>
       </c>
       <c r="F7">
-        <v>15.26647399323728</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.710611031385795</v>
+        <v>2.098152333933522</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.67785672238547</v>
+        <v>23.08430901143737</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.70844392887024</v>
+        <v>7.540233981877551</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.6088632627947</v>
+        <v>13.18085891063017</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.7239821956056</v>
+        <v>26.66515817968011</v>
       </c>
       <c r="C8">
-        <v>11.19677513814738</v>
+        <v>18.50051083805428</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.597492354979149</v>
+        <v>4.992715460436821</v>
       </c>
       <c r="F8">
-        <v>16.53996406344769</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.704769397691829</v>
+        <v>2.081266647309143</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.67306840155383</v>
+        <v>23.79335720185115</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.72895869886002</v>
+        <v>7.902410077311369</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.51086293810517</v>
+        <v>12.80286313506671</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.88756609412613</v>
+        <v>31.22471186021494</v>
       </c>
       <c r="C9">
-        <v>12.51047203485275</v>
+        <v>21.80124994772898</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.578523572486265</v>
+        <v>5.00005642192189</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.694405472344733</v>
+        <v>2.049059492015984</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.72986919414148</v>
+        <v>25.39999750736751</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.78783478117294</v>
+        <v>8.627900129376924</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.33500233240787</v>
+        <v>12.08412042800243</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.7398573562466</v>
+        <v>34.3594345588084</v>
       </c>
       <c r="C10">
-        <v>13.4085093012062</v>
+        <v>24.06770865978219</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.566586474858132</v>
+        <v>5.013346687008793</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>3.687447121904872</v>
+        <v>2.025601545305604</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.81234615036747</v>
+        <v>26.72963437566094</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.8423160469218</v>
+        <v>9.169621612704585</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.21566819853621</v>
+        <v>11.56758300705398</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.12509115630331</v>
+        <v>35.74163875531576</v>
       </c>
       <c r="C11">
-        <v>13.80107222504272</v>
+        <v>25.06978916958554</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.561588590695978</v>
+        <v>5.021576300700256</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>3.684422025453419</v>
+        <v>2.014881152227365</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.85876838362413</v>
+        <v>27.37154467003591</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.86949819437495</v>
+        <v>9.418249885328748</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.16350715867067</v>
+        <v>11.3347256576117</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.27046196458691</v>
+        <v>36.25933527993864</v>
       </c>
       <c r="C12">
-        <v>13.94733959163762</v>
+        <v>25.44563106080418</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.559758087330994</v>
+        <v>5.025055983853574</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.683296518145761</v>
+        <v>2.010805200876511</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.87762925568592</v>
+        <v>27.62042053068592</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.88013204117402</v>
+        <v>9.51277254074081</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.14405954428281</v>
+        <v>11.24683630819582</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.23917873011668</v>
+        <v>36.14808372719565</v>
       </c>
       <c r="C13">
-        <v>13.91594579755452</v>
+        <v>25.3648384440318</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.560149558964698</v>
+        <v>5.024289518272586</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.683538027666532</v>
+        <v>2.011683923049965</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.8735102140651</v>
+        <v>27.56655422733931</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.87782677926352</v>
+        <v>9.492397597190081</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.14823440079219</v>
+        <v>11.26575210640399</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.1370619421678</v>
+        <v>35.78434074401467</v>
       </c>
       <c r="C14">
-        <v>13.81315405649401</v>
+        <v>25.10077914369377</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.561436750237949</v>
+        <v>5.021854976303211</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>3.684329028654786</v>
+        <v>2.014546208215381</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.86029438693107</v>
+        <v>27.39190058521693</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.87036624844276</v>
+        <v>9.426018421833854</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.1619010912614</v>
+        <v>11.32748920107239</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.07444180876263</v>
+        <v>35.56081270213769</v>
       </c>
       <c r="C15">
-        <v>13.74987772132286</v>
+        <v>24.93858069085427</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.562233275160466</v>
+        <v>5.020412698229141</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.684816144000513</v>
+        <v>2.016297006008296</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.85236625556957</v>
+        <v>27.2856909201522</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.86584067249367</v>
+        <v>9.385409973477097</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.17031198111875</v>
+        <v>11.36534232323584</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.7146183268018</v>
+        <v>34.26827042170554</v>
       </c>
       <c r="C16">
-        <v>13.38252494528328</v>
+        <v>24.00168193496648</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.566921791055847</v>
+        <v>5.012856794973166</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.687647629899992</v>
+        <v>2.026300397806827</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.80949166697436</v>
+        <v>26.68846768762321</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.84058753154429</v>
+        <v>9.153421538239801</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.21911972242866</v>
+        <v>11.58284173316208</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.49313243817534</v>
+        <v>33.46450240536024</v>
       </c>
       <c r="C17">
-        <v>13.15300710078527</v>
+        <v>23.41986792119915</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.569908718594462</v>
+        <v>5.008812864102249</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>3.68942048532094</v>
+        <v>2.032418400003343</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.78547136568109</v>
+        <v>26.33188658418653</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.8257068926957</v>
+        <v>9.011697842040469</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.24960522764432</v>
+        <v>11.71679764399737</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.36551500376209</v>
+        <v>32.9980330544153</v>
       </c>
       <c r="C18">
-        <v>13.0194968047054</v>
+        <v>23.08246280860108</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.571667420989302</v>
+        <v>5.006688981045181</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.690453398350939</v>
+        <v>2.035933314895481</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.77249352891575</v>
+        <v>26.13024510679561</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.81737397487369</v>
+        <v>8.930383795148737</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.26733971762741</v>
+        <v>11.79404521459086</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.32227214333912</v>
+        <v>32.83936343816107</v>
       </c>
       <c r="C19">
-        <v>12.97403838318318</v>
+        <v>22.96773401591611</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.572269880513629</v>
+        <v>5.006003233507853</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>3.690805398733119</v>
+        <v>2.037122976573531</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.76824331219118</v>
+        <v>26.06255324546681</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.81459153744314</v>
+        <v>8.902885644525403</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.27337869456154</v>
+        <v>11.82023490903659</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.51673436754653</v>
+        <v>33.55049187497734</v>
       </c>
       <c r="C20">
-        <v>13.1775953984219</v>
+        <v>23.48208515762176</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.569586543337266</v>
+        <v>5.009222107398728</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>3.689230395324453</v>
+        <v>2.031767604437981</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.78794162137691</v>
+        <v>26.36948461061476</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.82726759850187</v>
+        <v>9.026763382745862</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.24633929735316</v>
+        <v>11.70251730203831</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.16707110215989</v>
+        <v>35.89133075634284</v>
       </c>
       <c r="C21">
-        <v>13.84341194352456</v>
+        <v>25.1784333907712</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.561056986595831</v>
+        <v>5.022559756555808</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.684096149989625</v>
+        <v>2.013706011895745</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.86414140409537</v>
+        <v>27.44303899154862</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.87254838125571</v>
+        <v>9.445504881270685</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.15787859204071</v>
+        <v>11.30934773883324</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.58907304487303</v>
+        <v>37.3882519580946</v>
       </c>
       <c r="C22">
-        <v>14.26461214278993</v>
+        <v>26.26628832586913</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.55584428263937</v>
+        <v>5.033425082124666</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>3.680857314076856</v>
+        <v>2.001800769065004</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.92141317005181</v>
+        <v>28.17876074691265</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.90412469812984</v>
+        <v>9.7213971984916</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.10183969098501</v>
+        <v>11.05407590317406</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.36416814282596</v>
+        <v>36.59210935298047</v>
       </c>
       <c r="C23">
-        <v>14.04111262929909</v>
+        <v>25.68738138724724</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.55859331798564</v>
+        <v>5.027410387741942</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>3.682575311729361</v>
+        <v>2.008167558848423</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.89016246856743</v>
+        <v>27.78279038668335</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.88709195004303</v>
+        <v>9.573918172877292</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.13158655228174</v>
+        <v>11.19016598813447</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.50606480274365</v>
+        <v>33.51162969739096</v>
       </c>
       <c r="C24">
-        <v>13.16648387289493</v>
+        <v>23.45396585602116</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.569732069569753</v>
+        <v>5.009036465895106</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>3.689316292406653</v>
+        <v>2.03206183593013</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.78682222818184</v>
+        <v>26.35247610598455</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.82656131110657</v>
+        <v>9.019951742339641</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.24781517660005</v>
+        <v>11.70897271277942</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.57256191358578</v>
+        <v>30.02816093739992</v>
       </c>
       <c r="C25">
-        <v>12.1663278047407</v>
+        <v>20.93780586584857</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.583303503259021</v>
+        <v>4.996820548656646</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>3.697093306777578</v>
+        <v>2.057708425561489</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.70737042208741</v>
+        <v>24.94052706631945</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.7699237731589</v>
+        <v>8.430131022893232</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.38083842887077</v>
+        <v>12.276388644993</v>
       </c>
       <c r="O25">
         <v>0</v>
